--- a/ExpirementDocs/miniGPTvsGPT/Charts.xlsx
+++ b/ExpirementDocs/miniGPTvsGPT/Charts.xlsx
@@ -8,70 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongxiao/Documents/Code/phd_projects/3.5D-LLM-Research/ExpirementDocs/miniGPTvsGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BAAD50-296A-3541-A4B2-CB4D021DA03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E091C7-3A8E-674C-9282-AFF5867F9C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9FED3491-3547-2247-97AB-918A60D7F772}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{9FED3491-3547-2247-97AB-918A60D7F772}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$4:$J$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$H$2:$H$4</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$I$2:$I$4</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$G$1:$I$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$G$2:$I$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$G$3:$I$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$G$4:$I$4</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$G$2:$G$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2429,6 +2387,1648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Logical</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Problems:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Each</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Robot Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-858B-0243-9D4D-7AFD16A2B14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Robot Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-858B-0243-9D4D-7AFD16A2B14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Robot Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-858B-0243-9D4D-7AFD16A2B14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Robot Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-858B-0243-9D4D-7AFD16A2B14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Robot Q5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-858B-0243-9D4D-7AFD16A2B14C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+        <c:axId val="289029679"/>
+        <c:axId val="289031327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="289029679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289031327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289031327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289029679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Formatted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Output:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Each</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Json Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-292D-2F45-82C2-23236AD90DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Json Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-292D-2F45-82C2-23236AD90DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Json Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPT-3.5-Turbo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miniGPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-292D-2F45-82C2-23236AD90DF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+        <c:axId val="296646175"/>
+        <c:axId val="296647823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="296646175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296647823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="296647823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296646175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2475,6 +4075,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2979,6 +4659,1016 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3523,16 +6213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3552,6 +6242,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98896C15-DD80-8B42-A687-DD9D50B1AF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85FA574-914C-D640-9E27-C37EE8AE4071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3810,6 +6572,652 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>98</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19029</cdr:x>
+      <cdr:y>0.23968</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32827</cdr:x>
+      <cdr:y>0.36834</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B347734D-D5E1-9F46-8572-E0086A9DAD26}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1042776" y="852311"/>
+          <a:ext cx="756178" cy="457515"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>88</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49121</cdr:x>
+      <cdr:y>0.18624</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62919</cdr:x>
+      <cdr:y>0.3149</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FDC65A-77E1-F140-9594-A9ABF78AA2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2691836" y="662281"/>
+          <a:ext cx="756178" cy="457515"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>98</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79306</cdr:x>
+      <cdr:y>0.37791</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93105</cdr:x>
+      <cdr:y>0.50657</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2851254-93C7-374C-99C7-EA61E296588F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4346028" y="1343848"/>
+          <a:ext cx="756179" cy="457515"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>64</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18056</cdr:x>
+      <cdr:y>0.19444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34595</cdr:x>
+      <cdr:y>0.36123</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6527C9F-A01B-7749-9F73-6B832DC339B8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="825500" y="533400"/>
+          <a:ext cx="756178" cy="457515"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>55</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48333</cdr:x>
+      <cdr:y>0.15741</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64873</cdr:x>
+      <cdr:y>0.32419</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C008FF4-BEC4-8340-8A4B-AF6B9CA812AD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2209800" y="431800"/>
+          <a:ext cx="756178" cy="457515"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>60</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78778</cdr:x>
+      <cdr:y>0.40475</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95317</cdr:x>
+      <cdr:y>0.57154</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C008FF4-BEC4-8340-8A4B-AF6B9CA812AD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4156975" y="1372482"/>
+          <a:ext cx="872755" cy="565539"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>34</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4119,7 +7527,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
